--- a/media/produits_en_rupture.xlsx
+++ b/media/produits_en_rupture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>coffret el faris</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,26 +466,146 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>35.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Coffet intense musk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Creme yara</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Creme emirat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>coffret vv love - midnight</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>coffret vv love - la bella viva</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>coffret tahara</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.00</t>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>175.50</t>
         </is>
       </c>
     </row>

--- a/media/produits_en_rupture.xlsx
+++ b/media/produits_en_rupture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,14 +598,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>popo</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>175.50</t>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>180.50</t>
         </is>
       </c>
     </row>
